--- a/Inputs_Data_largePlans/83_NY_NY-ERS.xlsx
+++ b/Inputs_Data_largePlans/83_NY_NY-ERS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\PPD150_Experiment\Inputs_largePlans_raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\PPD150_Experiment\Inputs_Data_largePlans\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="508">
   <si>
     <t>TOC</t>
   </si>
@@ -1575,6 +1575,9 @@
   </si>
   <si>
     <t>payroll growth - infl, may include merit</t>
+  </si>
+  <si>
+    <t>March 31 2016</t>
   </si>
 </sst>
 </file>
@@ -17338,7 +17341,7 @@
       <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17349,7 +17352,7 @@
     <col min="5" max="5" width="45.42578125" customWidth="1"/>
     <col min="6" max="6" width="22.5703125" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" customWidth="1"/>
     <col min="11" max="11" width="31.140625" customWidth="1"/>
@@ -17481,7 +17484,9 @@
       <c r="G11" s="91">
         <v>1000000</v>
       </c>
-      <c r="H11" s="25"/>
+      <c r="H11" s="25" t="s">
+        <v>507</v>
+      </c>
       <c r="I11" s="25" t="s">
         <v>343</v>
       </c>
@@ -17512,7 +17517,9 @@
       <c r="G12" s="91">
         <v>1000000</v>
       </c>
-      <c r="H12" s="25"/>
+      <c r="H12" s="25" t="s">
+        <v>507</v>
+      </c>
       <c r="I12" s="25" t="s">
         <v>343</v>
       </c>
@@ -17543,7 +17550,9 @@
       <c r="G13" s="91">
         <v>1000000</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="25" t="s">
+        <v>507</v>
+      </c>
       <c r="I13" s="25" t="s">
         <v>343</v>
       </c>
@@ -17574,7 +17583,9 @@
       <c r="G14" s="91">
         <v>1000000</v>
       </c>
-      <c r="H14" s="25"/>
+      <c r="H14" s="25" t="s">
+        <v>507</v>
+      </c>
       <c r="I14" s="25" t="s">
         <v>343</v>
       </c>
@@ -17605,7 +17616,9 @@
       <c r="G15" s="91">
         <v>1000000</v>
       </c>
-      <c r="H15" s="25"/>
+      <c r="H15" s="25" t="s">
+        <v>507</v>
+      </c>
       <c r="I15" s="25" t="s">
         <v>343</v>
       </c>
@@ -17636,7 +17649,9 @@
       <c r="G16" s="91">
         <v>1000000</v>
       </c>
-      <c r="H16" s="25"/>
+      <c r="H16" s="25" t="s">
+        <v>507</v>
+      </c>
       <c r="I16" s="25" t="s">
         <v>343</v>
       </c>
@@ -17667,7 +17682,9 @@
       <c r="G17" s="91">
         <v>1000000</v>
       </c>
-      <c r="H17" s="25"/>
+      <c r="H17" s="25" t="s">
+        <v>507</v>
+      </c>
       <c r="I17" s="25" t="s">
         <v>343</v>
       </c>
@@ -17700,7 +17717,9 @@
       <c r="G18" s="25">
         <v>1</v>
       </c>
-      <c r="H18" s="25"/>
+      <c r="H18" s="25" t="s">
+        <v>507</v>
+      </c>
       <c r="I18" s="25"/>
       <c r="J18" s="24"/>
       <c r="K18" s="25" t="s">

--- a/Inputs_Data_largePlans/83_NY_NY-ERS.xlsx
+++ b/Inputs_Data_largePlans/83_NY_NY-ERS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="810" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="810" firstSheet="22" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="65" r:id="rId1"/>
@@ -2692,16 +2692,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>675549</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>151831</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>256449</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>132781</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2724,7 +2724,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7334250" y="12934950"/>
+          <a:off x="8210550" y="16725900"/>
           <a:ext cx="5809524" cy="4552381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7097,7 +7097,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11507,7 +11509,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C19"/>
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14297,7 +14299,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16728,7 +16730,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y23" sqref="Y23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -17337,7 +17341,7 @@
   </sheetPr>
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
